--- a/PFAS Rainbow trout PBK/Rainbow trout Physiological parameters/Rainbow trout Physiological parameters.xlsx
+++ b/PFAS Rainbow trout PBK/Rainbow trout Physiological parameters/Rainbow trout Physiological parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vassi\Documents\GitHub\PFAS_PBK_models\PFAS Rainbow trout PBK\Rainbow trout Physiological parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5837D3A-AE52-4C41-A5EB-7D9CDEF7BF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F916319-38E7-4588-BAE2-093AC6956319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6195" yWindow="3840" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fractions of BW" sheetId="1" r:id="rId1"/>
@@ -1059,10 +1059,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1944,7 +1940,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="N3" sqref="N3:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,16 +2048,16 @@
         <v>9</v>
       </c>
       <c r="C2" s="2">
-        <v>0.04</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="D2" s="2">
-        <v>7.2999999999999995E-2</v>
+        <v>7.2800000000000004E-2</v>
       </c>
       <c r="E2" s="2">
         <v>0.65500000000000003</v>
       </c>
       <c r="F2" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="G2" s="2">
         <v>7.0999999999999994E-2</v>
